--- a/zprava/podklady/data.xlsx
+++ b/zprava/podklady/data.xlsx
@@ -39,7 +39,7 @@
     <t>Z namerenych dat je videt, ze namerene casy pro site InfiniBand a Ethernet jsou temer stejne, lisi se v radu par sekund. Vyssi casy jsou prevazne u site Ethernet. S ohlednutim na mozne spozdeni, které nemusi vzniknout primo algoritmem, lze rici, ze namerene casy jsou pro obe site stejne. To znamena, ze se neprenasi velke mnozstvi zprav, ktere by algoritmus zpomalovaly.</t>
   </si>
   <si>
-    <t>Z grafu, znazornujici zrychleni vyplyva</t>
+    <t>Z grafu, znazornujici zrychleni je videt, ze je na zaklade namerenych dat podobne pro obe site. Nejlepsi rovnomerne zrychleni pro zvolene instance se zda byt pro 12 vypocetnich uzlu.</t>
   </si>
 </sst>
 </file>
@@ -427,9 +427,6 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -451,15 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,6 +463,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="normální" xfId="0" builtinId="0"/>
@@ -878,11 +878,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62923520"/>
-        <c:axId val="62926208"/>
+        <c:axId val="67715840"/>
+        <c:axId val="67718528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62923520"/>
+        <c:axId val="67715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -914,14 +914,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62926208"/>
+        <c:crossAx val="67718528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62926208"/>
+        <c:axId val="67718528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="900"/>
@@ -961,7 +961,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7766961456887056E-3"/>
+              <c:x val="1.776696145688706E-3"/>
               <c:y val="0.45957088633151638"/>
             </c:manualLayout>
           </c:layout>
@@ -969,7 +969,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62923520"/>
+        <c:crossAx val="67715840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -982,7 +982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1012,7 +1012,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42381387631536843"/>
+          <c:x val="0.42381387631536854"/>
           <c:y val="1.1574074074074073E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1389,11 +1389,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62991744"/>
-        <c:axId val="62998400"/>
+        <c:axId val="76295552"/>
+        <c:axId val="76306304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62991744"/>
+        <c:axId val="76295552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1425,14 +1425,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62998400"/>
+        <c:crossAx val="76306304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62998400"/>
+        <c:axId val="76306304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -1461,7 +1461,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7766961456887062E-3"/>
+              <c:x val="1.7766961456887065E-3"/>
               <c:y val="0.45957088633151638"/>
             </c:manualLayout>
           </c:layout>
@@ -1469,7 +1469,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62991744"/>
+        <c:crossAx val="76295552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1845,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -1859,795 +1859,795 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:34" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:34" ht="30.75" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>12</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>2</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>4</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>8</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>12</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="J4" s="20" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="J4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>278.50799999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>182.29900000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45.120899999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>27.941600000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>21.3931</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>16.7333</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" ref="K5:P7" si="0">$B5/B5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>1.5277538549306358</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>6.1724832616370682</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>9.9675036504709809</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>13.018590106155722</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>16.643937537724177</v>
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>610.10500000000002</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>311.41399999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>173.571</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>111.556</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>43.716799999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>36.113999999999997</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>10</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>1.9591444186838101</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>3.5150169095067727</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f t="shared" si="0"/>
         <v>5.4690469360679836</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>13.955847637521503</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>16.893863875505346</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>870.92700000000002</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>455.00599999999997</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>267.04700000000003</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>175.113</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>63.384</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>50.120600000000003</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>15</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>1.9141000338457077</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" si="0"/>
         <v>3.2613247855246454</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="0"/>
         <v>4.9735142450874577</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="0"/>
         <v>13.740486558121924</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>17.376627574290811</v>
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="J8" s="24" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="J8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>277.60399999999998</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>182.12799999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>45.195099999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>28.439</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>19.055700000000002</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>16.808599999999998</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>5</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" ref="K9:P11" si="1">$B9/B9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>1.5242247210752877</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>6.1423472898610694</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f t="shared" si="1"/>
         <v>9.7613840149091029</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
         <v>14.568029513478905</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="1"/>
         <v>16.515593208238641</v>
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>615.87699999999995</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>314.20699999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>175.38800000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>112.218</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>45.777799999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>36.810499999999998</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>10</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>1.9600995522060296</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>3.5115116199511935</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f t="shared" si="1"/>
         <v>5.4882193587481503</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <f t="shared" si="1"/>
         <v>13.453617255525604</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>16.731014248651878</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>883.11300000000006</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>453.80599999999998</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>269.911</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>179.61600000000001</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>63.081400000000002</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>52.190800000000003</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>15</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
         <v>1.9460143761871815</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
         <v>3.2718673933259486</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" si="1"/>
         <v>4.916672234099412</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>13.999578322611738</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <f t="shared" si="1"/>
         <v>16.920855783011564</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:34" ht="30.75" thickBot="1">
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="18"/>
-      <c r="AB14" s="19" t="s">
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="26"/>
+      <c r="AB14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC14" s="16" t="s">
+      <c r="AC14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="18"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
     </row>
     <row r="15" spans="1:34" ht="30.75" thickBot="1">
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <v>1</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="10">
         <v>2</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>4</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="10">
         <v>8</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="10">
         <v>12</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="11">
         <v>16</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>1</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="10">
         <v>2</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AE15" s="10">
         <v>4</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15" s="10">
         <v>8</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="10">
         <v>12</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="23"/>
-      <c r="AB16" s="20" t="s">
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="19"/>
+      <c r="AB16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="23"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="19"/>
     </row>
     <row r="17" spans="19:34">
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <v>5</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>278.50799999999998</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <v>182.29900000000001</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>45.120899999999999</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>27.941600000000001</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>21.3931</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <v>16.7333</v>
       </c>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="14">
+      <c r="AB17" s="13">
         <v>5</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="3">
         <v>1</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AD17" s="4">
         <v>1.5277538549306358</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="4">
         <v>6.1724832616370682</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AF17" s="4">
         <v>9.9675036504709809</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AG17" s="4">
         <v>13.018590106155722</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AH17" s="5">
         <v>16.643937537724177</v>
       </c>
     </row>
     <row r="18" spans="19:34">
-      <c r="S18" s="14">
+      <c r="S18" s="13">
         <v>10</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>610.10500000000002</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>311.41399999999999</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>173.571</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>111.556</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>43.716799999999999</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <v>36.113999999999997</v>
       </c>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="14">
+      <c r="AB18" s="13">
         <v>10</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AC18" s="3">
         <v>1</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AD18" s="4">
         <v>1.9591444186838101</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="4">
         <v>3.5150169095067727</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AF18" s="4">
         <v>5.4690469360679836</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="4">
         <v>13.955847637521503</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AH18" s="5">
         <v>16.893863875505346</v>
       </c>
     </row>
     <row r="19" spans="19:34" ht="15.75" thickBot="1">
-      <c r="S19" s="15">
+      <c r="S19" s="14">
         <v>15</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="6">
         <v>870.92700000000002</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <v>455.00599999999997</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="7">
         <v>267.04700000000003</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="7">
         <v>175.113</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="7">
         <v>63.384</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <v>50.120600000000003</v>
       </c>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="15">
+      <c r="AB19" s="14">
         <v>15</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="6">
         <v>1</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AD19" s="7">
         <v>1.9141000338457077</v>
       </c>
-      <c r="AE19" s="8">
+      <c r="AE19" s="7">
         <v>3.2613247855246454</v>
       </c>
-      <c r="AF19" s="8">
+      <c r="AF19" s="7">
         <v>4.9735142450874577</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AG19" s="7">
         <v>13.740486558121924</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH19" s="8">
         <v>17.376627574290811</v>
       </c>
     </row>
     <row r="20" spans="19:34">
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="27"/>
-      <c r="AB20" s="24" t="s">
+      <c r="T20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="23"/>
+      <c r="AB20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="23"/>
     </row>
     <row r="21" spans="19:34">
-      <c r="S21" s="14">
+      <c r="S21" s="13">
         <v>5</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>277.60399999999998</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="4">
         <v>182.12799999999999</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="4">
         <v>45.195099999999996</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="4">
         <v>28.439</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="4">
         <v>19.055700000000002</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <v>16.808599999999998</v>
       </c>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="14">
+      <c r="AB21" s="13">
         <v>5</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC21" s="3">
         <v>1</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AD21" s="4">
         <v>1.5242247210752877</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="4">
         <v>6.1423472898610694</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="4">
         <v>9.7613840149091029</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AG21" s="4">
         <v>14.568029513478905</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AH21" s="5">
         <v>16.515593208238641</v>
       </c>
     </row>
     <row r="22" spans="19:34">
-      <c r="S22" s="14">
+      <c r="S22" s="13">
         <v>10</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>615.87699999999995</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <v>314.20699999999999</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <v>175.38800000000001</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>112.218</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="4">
         <v>45.777799999999999</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <v>36.810499999999998</v>
       </c>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="14">
+      <c r="AB22" s="13">
         <v>10</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="3">
         <v>1</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="4">
         <v>1.9600995522060296</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="4">
         <v>3.5115116199511935</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="4">
         <v>5.4882193587481503</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="4">
         <v>13.453617255525604</v>
       </c>
-      <c r="AH22" s="6">
+      <c r="AH22" s="5">
         <v>16.731014248651878</v>
       </c>
     </row>
     <row r="23" spans="19:34" ht="15.75" thickBot="1">
-      <c r="S23" s="15">
+      <c r="S23" s="14">
         <v>15</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="6">
         <v>883.11300000000006</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="7">
         <v>453.80599999999998</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="7">
         <v>269.911</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="7">
         <v>179.61600000000001</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="7">
         <v>63.081400000000002</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="8">
         <v>52.190800000000003</v>
       </c>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="15">
+      <c r="AB23" s="14">
         <v>15</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="6">
         <v>1</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="7">
         <v>1.9460143761871815</v>
       </c>
-      <c r="AE23" s="8">
+      <c r="AE23" s="7">
         <v>3.2718673933259486</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="7">
         <v>4.916672234099412</v>
       </c>
-      <c r="AG23" s="8">
+      <c r="AG23" s="7">
         <v>13.999578322611738</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="8">
         <v>16.920855783011564</v>
       </c>
     </row>
@@ -2674,60 +2674,60 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="34" spans="3:18">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2743,88 +2743,88 @@
   <dimension ref="B33:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="33" spans="2:18">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
